--- a/Dummy Data.xlsx
+++ b/Dummy Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Open Ai\Stock Count\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Open Ai\Stock Count\Stock Count Tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066C0136-BB5B-4847-8580-51EEC0564BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4EBCEF-9CDF-4298-90D5-81AFAE7739FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -979,7 +979,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -994,7 +994,7 @@
     <col min="8" max="8" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5546875" style="3" bestFit="1" customWidth="1"/>
@@ -2245,7 +2245,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B6"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
